--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H2">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I2">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J2">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.265436</v>
+        <v>0.2792176666666666</v>
       </c>
       <c r="N2">
-        <v>0.796308</v>
+        <v>0.837653</v>
       </c>
       <c r="O2">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="P2">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="Q2">
-        <v>0.08820792194666666</v>
+        <v>0.01589325573177778</v>
       </c>
       <c r="R2">
-        <v>0.79387129752</v>
+        <v>0.143039301586</v>
       </c>
       <c r="S2">
-        <v>0.0263379416808584</v>
+        <v>0.004689919702268873</v>
       </c>
       <c r="T2">
-        <v>0.0263379416808584</v>
+        <v>0.004689919702268873</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H3">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I3">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J3">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.165027</v>
       </c>
       <c r="O3">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="P3">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="Q3">
-        <v>0.01828022415333333</v>
+        <v>0.003131148952666667</v>
       </c>
       <c r="R3">
-        <v>0.16452201738</v>
+        <v>0.028180340574</v>
       </c>
       <c r="S3">
-        <v>0.005458279336346011</v>
+        <v>0.0009239665812768836</v>
       </c>
       <c r="T3">
-        <v>0.00545827933634601</v>
+        <v>0.0009239665812768836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3323133333333333</v>
+        <v>0.05692066666666667</v>
       </c>
       <c r="H4">
-        <v>0.9969399999999999</v>
+        <v>0.170762</v>
       </c>
       <c r="I4">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="J4">
-        <v>0.2302327407427935</v>
+        <v>0.07235837399807114</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.99986</v>
+        <v>3.97368</v>
       </c>
       <c r="N4">
-        <v>5.99958</v>
+        <v>11.92104</v>
       </c>
       <c r="O4">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="P4">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="Q4">
-        <v>0.6645801427999999</v>
+        <v>0.22618451472</v>
       </c>
       <c r="R4">
-        <v>5.981221285199999</v>
+        <v>2.03566063248</v>
       </c>
       <c r="S4">
-        <v>0.1984365197255891</v>
+        <v>0.06674448771452539</v>
       </c>
       <c r="T4">
-        <v>0.1984365197255891</v>
+        <v>0.06674448771452539</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1.429314</v>
       </c>
       <c r="I5">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J5">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.265436</v>
+        <v>0.2792176666666666</v>
       </c>
       <c r="N5">
-        <v>0.796308</v>
+        <v>0.837653</v>
       </c>
       <c r="O5">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="P5">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="Q5">
-        <v>0.126463796968</v>
+        <v>0.1330299066713333</v>
       </c>
       <c r="R5">
-        <v>1.138174172712</v>
+        <v>1.197269160042</v>
       </c>
       <c r="S5">
-        <v>0.03776073662972139</v>
+        <v>0.03925561828350999</v>
       </c>
       <c r="T5">
-        <v>0.03776073662972139</v>
+        <v>0.03925561828350999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.429314</v>
       </c>
       <c r="I6">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J6">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.165027</v>
       </c>
       <c r="O6">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="P6">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="Q6">
         <v>0.026208377942</v>
@@ -818,10 +818,10 @@
         <v>0.235875401478</v>
       </c>
       <c r="S6">
-        <v>0.007825541227506231</v>
+        <v>0.007733795400330212</v>
       </c>
       <c r="T6">
-        <v>0.007825541227506229</v>
+        <v>0.007733795400330212</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.429314</v>
       </c>
       <c r="I7">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="J7">
-        <v>0.3300849395169671</v>
+        <v>0.6056548703615503</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.99986</v>
+        <v>3.97368</v>
       </c>
       <c r="N7">
-        <v>5.99958</v>
+        <v>11.92104</v>
       </c>
       <c r="O7">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="P7">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="Q7">
-        <v>0.95280929868</v>
+        <v>1.89321215184</v>
       </c>
       <c r="R7">
-        <v>8.575283688119999</v>
+        <v>17.03890936656</v>
       </c>
       <c r="S7">
-        <v>0.2844986616597395</v>
+        <v>0.5586654566777101</v>
       </c>
       <c r="T7">
-        <v>0.2844986616597395</v>
+        <v>0.5586654566777101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H8">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I8">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J8">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.265436</v>
+        <v>0.2792176666666666</v>
       </c>
       <c r="N8">
-        <v>0.796308</v>
+        <v>0.837653</v>
       </c>
       <c r="O8">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="P8">
-        <v>0.1143970297008367</v>
+        <v>0.06481516157886429</v>
       </c>
       <c r="Q8">
-        <v>0.1684532947653333</v>
+        <v>0.07072322893511111</v>
       </c>
       <c r="R8">
-        <v>1.516079652888</v>
+        <v>0.6365090604160001</v>
       </c>
       <c r="S8">
-        <v>0.05029835139025696</v>
+        <v>0.02086962359308543</v>
       </c>
       <c r="T8">
-        <v>0.05029835139025696</v>
+        <v>0.02086962359308543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H9">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I9">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J9">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.165027</v>
       </c>
       <c r="O9">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="P9">
-        <v>0.02370765912239986</v>
+        <v>0.0127693110033334</v>
       </c>
       <c r="Q9">
-        <v>0.03491028832466667</v>
+        <v>0.01393326628266667</v>
       </c>
       <c r="R9">
-        <v>0.314192594922</v>
+        <v>0.125399396544</v>
       </c>
       <c r="S9">
-        <v>0.01042383855854762</v>
+        <v>0.004111549021726311</v>
       </c>
       <c r="T9">
-        <v>0.01042383855854762</v>
+        <v>0.00411154902172631</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6346286666666666</v>
+        <v>0.2532906666666667</v>
       </c>
       <c r="H10">
-        <v>1.903886</v>
+        <v>0.7598720000000001</v>
       </c>
       <c r="I10">
-        <v>0.4396823197402394</v>
+        <v>0.3219867556403786</v>
       </c>
       <c r="J10">
-        <v>0.4396823197402393</v>
+        <v>0.3219867556403785</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.99986</v>
+        <v>3.97368</v>
       </c>
       <c r="N10">
-        <v>5.99958</v>
+        <v>11.92104</v>
       </c>
       <c r="O10">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="P10">
-        <v>0.8618953111767634</v>
+        <v>0.9224155274178023</v>
       </c>
       <c r="Q10">
-        <v>1.26916848532</v>
+        <v>1.00649605632</v>
       </c>
       <c r="R10">
-        <v>11.42251636788</v>
+        <v>9.058464506880002</v>
       </c>
       <c r="S10">
-        <v>0.3789601297914348</v>
+        <v>0.2970055830255668</v>
       </c>
       <c r="T10">
-        <v>0.3789601297914347</v>
+        <v>0.2970055830255668</v>
       </c>
     </row>
   </sheetData>
